--- a/data/trans_camb/P2A_senso_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P2A_senso_R-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,64; 0,41</t>
+          <t>-2,63; 0,28</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,16; -0,21</t>
+          <t>-3,21; -0,29</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,74; 2,1</t>
+          <t>-1,83; 1,84</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,5; 0,9</t>
+          <t>-1,44; 0,82</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,21; 0,27</t>
+          <t>-2,32; 0,18</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,92; 5,17</t>
+          <t>2,02; 5,18</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,55; 0,35</t>
+          <t>-1,61; 0,24</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-2,3; -0,36</t>
+          <t>-2,25; -0,38</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,87; 3,27</t>
+          <t>0,97; 3,31</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-63,26; 18,08</t>
+          <t>-62,05; 11,83</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-77,84; -5,72</t>
+          <t>-77,73; -7,44</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-45,29; 76,26</t>
+          <t>-44,04; 68,77</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-46,43; 47,74</t>
+          <t>-44,28; 44,67</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-69,27; 15,36</t>
+          <t>-69,55; 8,11</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>54,17; 258,75</t>
+          <t>59,96; 258,86</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-44,92; 14,72</t>
+          <t>-48,79; 10,43</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-65,49; -12,31</t>
+          <t>-67,08; -14,19</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>23,98; 135,94</t>
+          <t>27,05; 132,68</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,09; 1,53</t>
+          <t>0,12; 1,55</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 0,78</t>
+          <t>-0,5; 0,76</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,74; 2,47</t>
+          <t>0,81; 2,37</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,14; 1,47</t>
+          <t>-0,04; 1,62</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 0,59</t>
+          <t>-0,66; 0,72</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,15; 21,63</t>
+          <t>1,23; 24,57</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,24; 1,3</t>
+          <t>0,21; 1,34</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 0,53</t>
+          <t>-0,39; 0,55</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,3; 15,75</t>
+          <t>1,34; 14,07</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,69; 349,13</t>
+          <t>6,37; 364,72</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-48,32; 175,24</t>
+          <t>-52,21; 180,21</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>60,51; 509,06</t>
+          <t>69,95; 543,9</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-14,92; 235,9</t>
+          <t>-10,81; 254,63</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-49,23; 86,97</t>
+          <t>-50,58; 112,75</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>93,37; 2987,48</t>
+          <t>107,71; 3686,95</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>20,85; 204,23</t>
+          <t>14,32; 218,69</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-37,66; 84,91</t>
+          <t>-36,62; 88,51</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>134,11; 1882,21</t>
+          <t>137,49; 1901,62</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 2,55</t>
+          <t>-0,53; 2,58</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 0,98</t>
+          <t>-1,08; 0,93</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,01; 2,64</t>
+          <t>-0,0; 2,7</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,77; 4,74</t>
+          <t>0,73; 4,94</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,68; 0,28</t>
+          <t>-1,54; 0,3</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 1,88</t>
+          <t>-0,33; 1,95</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,47; 2,94</t>
+          <t>0,48; 3,05</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,07; 0,37</t>
+          <t>-1,05; 0,42</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,19; 1,89</t>
+          <t>0,15; 1,85</t>
         </is>
       </c>
     </row>
@@ -1223,7 +1223,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-81,21; 1358,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -1233,12 +1233,12 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-34,79; 1082,79</t>
+          <t>-23,79; 1240,66</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>12,08; 1577,98</t>
+          <t>16,04; 1555,6</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1248,22 +1248,22 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-28,87; 749,83</t>
+          <t>-27,57; 844,23</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>19,45; 772,64</t>
+          <t>25,35; 734,22</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-85,41; 115,74</t>
+          <t>-86,28; 139,93</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-0,6; 472,86</t>
+          <t>0,86; 461,33</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 0,83</t>
+          <t>-0,47; 0,77</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 0,02</t>
+          <t>-1,1; 0,01</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,12; 1,56</t>
+          <t>0,18; 1,59</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,08; 1,27</t>
+          <t>-0,08; 1,23</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,11; -0,02</t>
+          <t>-1,12; -0,02</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>1,34; 12,63</t>
+          <t>1,31; 17,14</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,11; 0,8</t>
+          <t>-0,12; 0,81</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,94; -0,12</t>
+          <t>-0,95; -0,11</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,08; 9,45</t>
+          <t>1,05; 9,01</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-25,14; 67,61</t>
+          <t>-25,82; 63,73</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-58,47; 2,76</t>
+          <t>-58,03; 5,46</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>5,91; 124,91</t>
+          <t>8,04; 124,65</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-4,49; 100,15</t>
+          <t>-4,52; 96,15</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-57,57; -0,35</t>
+          <t>-56,94; 1,75</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>77,97; 1018,35</t>
+          <t>78,29; 1138,19</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-8,4; 57,7</t>
+          <t>-6,77; 59,42</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-51,92; -8,88</t>
+          <t>-53,0; -8,68</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>64,78; 655,57</t>
+          <t>60,89; 572,18</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P2A_senso_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P2A_senso_R-Estudios-trans_camb.xlsx
@@ -642,7 +642,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-0,04</t>
+          <t>-0,08</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>3,51</t>
+          <t>3,35</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>2,08</t>
+          <t>1,94</t>
         </is>
       </c>
     </row>
@@ -695,7 +695,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,83; 1,84</t>
+          <t>-1,87; 1,78</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,02; 5,18</t>
+          <t>1,87; 4,94</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,97; 3,31</t>
+          <t>0,79; 3,13</t>
         </is>
       </c>
     </row>
@@ -748,7 +748,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-1,21%</t>
+          <t>-2,53%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -763,7 +763,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>134,38%</t>
+          <t>128,53%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>70,86%</t>
+          <t>65,99%</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-44,04; 68,77</t>
+          <t>-45,12; 67,39</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>59,96; 258,86</t>
+          <t>54,38; 251,47</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>27,05; 132,68</t>
+          <t>22,44; 126,0</t>
         </is>
       </c>
     </row>
@@ -858,37 +858,37 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,57</t>
+          <t>1,35</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>0,63</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>-0,06</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>10,18</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
           <t>0,7</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>0,01</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>6,26</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>0,74</t>
-        </is>
-      </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>3,97</t>
+          <t>5,72</t>
         </is>
       </c>
     </row>
@@ -911,37 +911,37 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,81; 2,37</t>
+          <t>0,52; 2,14</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,04; 1,62</t>
+          <t>-0,13; 1,5</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 0,72</t>
+          <t>-0,74; 0,69</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,23; 24,57</t>
+          <t>1,03; 38,68</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,21; 1,34</t>
+          <t>0,17; 1,31</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-0,39; 0,55</t>
+          <t>-0,44; 0,5</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,34; 14,07</t>
+          <t>1,08; 21,59</t>
         </is>
       </c>
     </row>
@@ -964,37 +964,37 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>218,58%</t>
+          <t>188,37%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>71,07%</t>
+          <t>59,31%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>1,48%</t>
+          <t>-5,5%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>637,39%</t>
+          <t>965,3%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>87,49%</t>
+          <t>80,02%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>11,5%</t>
+          <t>7,06%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>469,1%</t>
+          <t>649,12%</t>
         </is>
       </c>
     </row>
@@ -1017,37 +1017,37 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>69,95; 543,9</t>
+          <t>45,44; 491,39</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-10,81; 254,63</t>
+          <t>-14,65; 222,41</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-50,58; 112,75</t>
+          <t>-52,42; 102,73</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>107,71; 3686,95</t>
+          <t>85,74; 5027,56</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>14,32; 218,69</t>
+          <t>12,23; 201,89</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-36,62; 88,51</t>
+          <t>-37,85; 77,66</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>137,49; 1901,62</t>
+          <t>111,88; 2948,65</t>
         </is>
       </c>
     </row>
@@ -1074,37 +1074,37 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,26</t>
+          <t>1,1</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>2,53</t>
+          <t>2,33</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-0,49</t>
+          <t>-0,69</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,86</t>
+          <t>0,57</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>1,61</t>
+          <t>1,52</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-0,27</t>
+          <t>-0,36</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>1,06</t>
+          <t>0,84</t>
         </is>
       </c>
     </row>
@@ -1127,37 +1127,37 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,0; 2,7</t>
+          <t>-0,11; 2,5</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,73; 4,94</t>
+          <t>0,52; 4,73</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,54; 0,3</t>
+          <t>-1,91; 0,11</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,33; 1,95</t>
+          <t>-0,67; 1,71</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,48; 3,05</t>
+          <t>0,34; 2,97</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 0,42</t>
+          <t>-1,17; 0,38</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,15; 1,85</t>
+          <t>-0,09; 1,63</t>
         </is>
       </c>
     </row>
@@ -1180,37 +1180,37 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>171,0%</t>
+          <t>149,25%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>300,33%</t>
+          <t>223,46%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-58,48%</t>
+          <t>-66,45%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>102,15%</t>
+          <t>54,79%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>205,32%</t>
+          <t>173,04%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-34,21%</t>
+          <t>-41,16%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>134,86%</t>
+          <t>96,2%</t>
         </is>
       </c>
     </row>
@@ -1233,12 +1233,12 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-23,79; 1240,66</t>
+          <t>-32,29; 1048,8</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>16,04; 1555,6</t>
+          <t>3,87; 1013,57</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1248,22 +1248,22 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-27,57; 844,23</t>
+          <t>-41,43; 513,25</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>25,35; 734,22</t>
+          <t>10,46; 623,99</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-86,28; 139,93</t>
+          <t>-86,27; 131,01</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0,86; 461,33</t>
+          <t>-11,96; 378,68</t>
         </is>
       </c>
     </row>
@@ -1290,37 +1290,37 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,84</t>
+          <t>0,66</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,57</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-0,53</t>
+          <t>-0,59</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>4,36</t>
+          <t>6,75</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,36</t>
+          <t>0,33</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-0,53</t>
+          <t>-0,56</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>2,7</t>
+          <t>3,79</t>
         </is>
       </c>
     </row>
@@ -1343,37 +1343,37 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,18; 1,59</t>
+          <t>-0,09; 1,38</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,08; 1,23</t>
+          <t>-0,15; 1,18</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,12; -0,02</t>
+          <t>-1,19; -0,07</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>1,31; 17,14</t>
+          <t>1,05; 27,67</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,12; 0,81</t>
+          <t>-0,16; 0,79</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,95; -0,11</t>
+          <t>-1,0; -0,13</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,05; 9,01</t>
+          <t>0,81; 14,61</t>
         </is>
       </c>
     </row>
@@ -1396,37 +1396,37 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>54,51%</t>
+          <t>42,35%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>35,51%</t>
+          <t>30,42%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-33,06%</t>
+          <t>-35,58%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>273,04%</t>
+          <t>406,91%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>22,71%</t>
+          <t>20,29%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-33,55%</t>
+          <t>-34,86%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>172,04%</t>
+          <t>236,2%</t>
         </is>
       </c>
     </row>
@@ -1449,37 +1449,37 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>8,04; 124,65</t>
+          <t>-4,72; 111,14</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-4,52; 96,15</t>
+          <t>-8,22; 86,57</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-56,94; 1,75</t>
+          <t>-58,42; -1,56</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>78,29; 1138,19</t>
+          <t>61,98; 1839,89</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-6,77; 59,42</t>
+          <t>-9,13; 57,11</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-53,0; -8,68</t>
+          <t>-53,91; -9,89</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>60,89; 572,18</t>
+          <t>47,52; 929,12</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P2A_senso_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P2A_senso_R-Estudios-trans_camb.xlsx
@@ -531,7 +531,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Hogares con personas con limitación, discapacidad sensorial</t>
+          <t>Hogares con personas con limitación por discapacidad sensorial</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,63; 0,28</t>
+          <t>-2,6; 0,31</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,21; -0,29</t>
+          <t>-3,08; -0,26</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,87; 1,78</t>
+          <t>-1,78; 1,85</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,44; 0,82</t>
+          <t>-1,31; 1,04</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,32; 0,18</t>
+          <t>-2,17; 0,24</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,87; 4,94</t>
+          <t>1,94; 4,97</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,61; 0,24</t>
+          <t>-1,55; 0,27</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-2,25; -0,38</t>
+          <t>-2,25; -0,3</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,79; 3,13</t>
+          <t>0,72; 3,23</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-62,05; 11,83</t>
+          <t>-61,79; 14,98</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-77,73; -7,44</t>
+          <t>-77,33; -8,89</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-45,12; 67,39</t>
+          <t>-45,19; 70,75</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-44,28; 44,67</t>
+          <t>-42,94; 54,03</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-69,55; 8,11</t>
+          <t>-68,44; 16,26</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>54,38; 251,47</t>
+          <t>58,38; 238,04</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-48,79; 10,43</t>
+          <t>-45,93; 11,86</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-67,08; -14,19</t>
+          <t>-67,34; -9,72</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>22,44; 126,0</t>
+          <t>20,1; 129,49</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,12; 1,55</t>
+          <t>0,11; 1,57</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 0,76</t>
+          <t>-0,42; 0,79</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,52; 2,14</t>
+          <t>0,56; 2,17</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,13; 1,5</t>
+          <t>-0,16; 1,57</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 0,69</t>
+          <t>-0,75; 0,57</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,03; 38,68</t>
+          <t>0,93; 34,91</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,17; 1,31</t>
+          <t>0,24; 1,27</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 0,5</t>
+          <t>-0,38; 0,58</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,08; 21,59</t>
+          <t>1,12; 21,76</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,37; 364,72</t>
+          <t>0,29; 334,32</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-52,21; 180,21</t>
+          <t>-45,36; 171,71</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>45,44; 491,39</t>
+          <t>47,51; 465,05</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-14,65; 222,41</t>
+          <t>-16,2; 212,62</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-52,42; 102,73</t>
+          <t>-51,46; 85,99</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>85,74; 5027,56</t>
+          <t>73,45; 4773,45</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>12,23; 201,89</t>
+          <t>20,16; 197,99</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-37,85; 77,66</t>
+          <t>-34,71; 94,22</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>111,88; 2948,65</t>
+          <t>112,44; 3300,76</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,53; 2,58</t>
+          <t>-0,64; 2,45</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 0,93</t>
+          <t>-1,14; 0,9</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,11; 2,5</t>
+          <t>-0,2; 2,43</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,52; 4,73</t>
+          <t>0,63; 4,81</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,91; 0,11</t>
+          <t>-1,91; 0,14</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,67; 1,71</t>
+          <t>-0,72; 1,62</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,34; 2,97</t>
+          <t>0,33; 2,95</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 0,38</t>
+          <t>-1,25; 0,38</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-0,09; 1,63</t>
+          <t>-0,24; 1,62</t>
         </is>
       </c>
     </row>
@@ -1228,42 +1228,42 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
+          <t>-100,0; —</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>-30,43; 991,39</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>10,35; 1086,02</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-32,29; 1048,8</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>3,87; 1013,57</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-41,43; 513,25</t>
+          <t>-42,39; 430,87</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>10,46; 623,99</t>
+          <t>8,96; 582,16</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-86,27; 131,01</t>
+          <t>-84,63; 111,97</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-11,96; 378,68</t>
+          <t>-24,05; 346,16</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,47; 0,77</t>
+          <t>-0,47; 0,79</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,1; 0,01</t>
+          <t>-1,07; -0,02</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,09; 1,38</t>
+          <t>-0,11; 1,38</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,15; 1,18</t>
+          <t>-0,14; 1,2</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,19; -0,07</t>
+          <t>-1,19; -0,08</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>1,05; 27,67</t>
+          <t>1,08; 24,35</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,16; 0,79</t>
+          <t>-0,15; 0,77</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,0; -0,13</t>
+          <t>-0,97; -0,15</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,81; 14,61</t>
+          <t>0,82; 13,78</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-25,82; 63,73</t>
+          <t>-25,89; 63,12</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-58,03; 5,46</t>
+          <t>-58,53; -0,65</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-4,72; 111,14</t>
+          <t>-7,17; 106,2</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-8,22; 86,57</t>
+          <t>-8,71; 83,49</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-58,42; -1,56</t>
+          <t>-59,46; -3,25</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>61,98; 1839,89</t>
+          <t>60,11; 1892,26</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-9,13; 57,11</t>
+          <t>-8,92; 53,2</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-53,91; -9,89</t>
+          <t>-53,44; -10,48</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>47,52; 929,12</t>
+          <t>47,04; 861,16</t>
         </is>
       </c>
     </row>
